--- a/Desktop/JOE/Digestion/LIQ 201124/RB & IQC.xlsx
+++ b/Desktop/JOE/Digestion/LIQ 201124/RB & IQC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunasama\Desktop\JOE\Digestion\LIQ 201124\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA76D58A-5872-47DD-AA54-91AB4CE493D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA0E46A-F407-466F-8174-C2DBDD1ED076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="2" r:id="rId1"/>
@@ -2851,7 +2851,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>-16.357</a:t>
+            <a:t>100.009</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3277,7 +3277,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>116.366</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -4019,7 +4019,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>116.349</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -4095,7 +4095,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>116.438</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -4231,7 +4231,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>-16.335</a:t>
+            <a:t>100.014</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
@@ -4297,7 +4297,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>-16.347</a:t>
+            <a:t>100.091</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
@@ -4422,7 +4422,7 @@
             <v>IQC LIQ BLK 201124</v>
           </cell>
           <cell r="F5">
-            <v>-16.356999999999999</v>
+            <v>100.009</v>
           </cell>
         </row>
         <row r="6">
@@ -4779,7 +4779,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="B14" s="23">
         <f>[1]FormGerhadt!$F$5</f>
-        <v>-16.356999999999999</v>
+        <v>100.009</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="29"/>
@@ -5257,7 +5257,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>

--- a/Desktop/JOE/Digestion/LIQ 201124/RB & IQC.xlsx
+++ b/Desktop/JOE/Digestion/LIQ 201124/RB & IQC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunasama\Desktop\JOE\Digestion\LIQ 201124\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA0E46A-F407-466F-8174-C2DBDD1ED076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9756F67B-69E7-43BA-A6F3-6C803A84BA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
   </bookViews>
@@ -263,9 +263,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Sampel IQC :     Serbuk        Cecair        Pil        Kapsul lembut        Krim/Salap   </t>
-  </si>
-  <si>
     <t>serbuk</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>Cecair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampel IQC :      Serbuk       Cecair       Pil       Kapsul lembut       Krim/Salap   </t>
   </si>
 </sst>
 </file>
@@ -819,137 +819,137 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4850,7 +4850,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="22" t="b">
         <f>IF(B4="Microwave", TRUE)</f>
@@ -4887,7 +4887,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -4921,7 +4921,7 @@
         <v>1123090</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M7" s="21"/>
     </row>
@@ -4930,13 +4930,13 @@
         <v>30</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M8" s="21"/>
     </row>
@@ -4951,13 +4951,13 @@
         <v>4122020</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="30" t="str">
         <f>[1]FormGerhadt!$B$29</f>
@@ -4965,19 +4965,19 @@
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="F10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="G10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -4985,10 +4985,10 @@
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22" t="b">
@@ -5017,7 +5017,7 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="22"/>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="15" t="str">
         <f>[1]FormGerhadt!$B$5</f>
@@ -5050,7 +5050,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="23">
         <f>[1]FormGerhadt!$F$5</f>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="22"/>
@@ -5083,7 +5083,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="15" t="str">
         <f>[1]FormGerhadt!$B$6</f>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="23" t="str">
         <f>[1]FormGerhadt!$F$6</f>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="22"/>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="15" t="str">
         <f>[1]FormGerhadt!$B$7</f>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="23" t="str">
         <f>[1]FormGerhadt!$F$7</f>
@@ -5257,8 +5257,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5273,101 +5273,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="72" t="str">
+      <c r="B3" s="53"/>
+      <c r="C3" s="61" t="str">
         <f>Form!B2</f>
         <v>IQBAL NORDIYANA</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="73">
+      <c r="B4" s="53"/>
+      <c r="C4" s="62">
         <f>Form!B3</f>
         <v>45616</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="74" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
     </row>
     <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="49" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="51"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="69"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="77" t="str">
+      <c r="B7" s="53"/>
+      <c r="C7" s="66" t="str">
         <f>Form!B5</f>
         <v>PG 603S</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -5398,31 +5398,31 @@
         <f>Form!B7</f>
         <v>1123090</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="58"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="62" t="str">
+      <c r="B12" s="50" t="str">
         <f>Form!B8</f>
         <v>K55266610321</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="58"/>
     </row>
     <row r="13" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="55" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
@@ -5432,26 +5432,26 @@
         <f>Form!B9</f>
         <v>4122020</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
       <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
@@ -5469,11 +5469,11 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5481,38 +5481,38 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="A19" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="78" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79" t="str">
+      <c r="E20" s="36"/>
+      <c r="F20" s="36" t="str">
         <f>Form!B13</f>
         <v>IQC LIQ BLK 201124</v>
       </c>
-      <c r="G20" s="79"/>
-      <c r="H20" s="80"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="14" t="s">
         <v>20</v>
       </c>
@@ -5522,9 +5522,9 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="38"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="9"/>
       <c r="E22" s="6"/>
       <c r="F22" s="1"/>
@@ -5532,56 +5532,56 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="37" t="s">
+      <c r="B23" s="58"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="1"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="39" t="s">
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="52" t="s">
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="53"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="78" t="s">
+      <c r="A25" s="75"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79" t="str">
+      <c r="E25" s="36"/>
+      <c r="F25" s="36" t="str">
         <f>Form!B16</f>
         <v>NA</v>
       </c>
-      <c r="G25" s="79"/>
-      <c r="H25" s="80"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="48"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="14" t="s">
         <v>20</v>
       </c>
@@ -5591,9 +5591,9 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="38"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="9"/>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
@@ -5601,56 +5601,56 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="37" t="s">
+      <c r="B28" s="58"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="1"/>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="41" t="s">
+      <c r="B29" s="71"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="52" t="s">
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="53"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="78" t="s">
+      <c r="A30" s="75"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79" t="str">
+      <c r="E30" s="36"/>
+      <c r="F30" s="36" t="str">
         <f>Form!B19</f>
         <v>NA</v>
       </c>
-      <c r="G30" s="79"/>
-      <c r="H30" s="80"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="48"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="14" t="s">
         <v>20</v>
       </c>
@@ -5660,9 +5660,9 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="38"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="9"/>
       <c r="E32" s="6"/>
       <c r="F32" s="1"/>
@@ -5670,34 +5670,34 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="37" t="s">
+      <c r="B33" s="58"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
       <c r="G33" s="1"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="41" t="s">
+      <c r="B34" s="71"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="52" t="s">
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="53"/>
+      <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
@@ -5711,14 +5711,34 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="C13:D14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
@@ -5735,34 +5755,14 @@
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G24:H24"/>
   </mergeCells>
   <pageMargins left="0.83575581395348841" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
